--- a/data_files/Mass_Load_Template.xlsx
+++ b/data_files/Mass_Load_Template.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexWill\Desktop\Work Files\Tooling\integrationShellCreator\Integration_Shell_Creator\Integration_Shell_Creator\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexWill\Desktop\Work_Files\Tooling\integrationShellCreator\Integration_Shell_Creator\Integration_Shell_Creator\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87FD5D1-D6C3-48BD-9DEA-992A76055AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8023200-DFA3-496A-8FC2-410B0E94DA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2526F920-34A1-4379-840C-56CA141028B1}"/>
+    <workbookView xWindow="33075" yWindow="-26430" windowWidth="16440" windowHeight="28440" xr2:uid="{2526F920-34A1-4379-840C-56CA141028B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,9 +40,6 @@
     <t>Integration Name</t>
   </si>
   <si>
-    <t>Int Template</t>
-  </si>
-  <si>
     <t>Report Data Source (Optional)</t>
   </si>
   <si>
@@ -111,6 +107,9 @@
   </si>
   <si>
     <t>HTTP/SSL</t>
+  </si>
+  <si>
+    <t>Integration Template</t>
   </si>
 </sst>
 </file>
@@ -479,131 +478,131 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="O3" t="b">
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P5" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P6" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P7" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P8" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="P10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -616,5 +615,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>